--- a/medicine/Pharmacie/Nils_Löfgren/Nils_Löfgren.xlsx
+++ b/medicine/Pharmacie/Nils_Löfgren/Nils_Löfgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nils_L%C3%B6fgren</t>
+          <t>Nils_Löfgren</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nils Löfgren (18 août 1913, Åtvidaberg - 21 janvier 1967), est un chimiste et professeur suédois. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nils_L%C3%B6fgren</t>
+          <t>Nils_Löfgren</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début des années 1940, Löfgren développe avec son assistant Bengt Lundqvist à l'université de Stockholm, la lidocaïne, un anesthésique local[1]. En 1943, Lundqvist et Löfgren vendent les droits de ce produit pharmaceutique à Astra (Astra AB (en)) pour 15 000 couronnes suédoises (plus les redevances à 4 % des ventes) qui le commercialise sous le nom de Xylocaïne[2]. L'entreprise pharmaceutique connait beaucoup de succès dans la commercialisation de ce produit[3].
-Löfgren termine sa thèse de doctorat en 1948 sous le titre Études sur les anesthésiques locaux : Xylocaïne: une nouvelle drogue de synthèse[4]. Il devient plus tard professeur à l'Université de Stockholm. Löfgren reçoit le prix de l'Institut royal de technologie de Suède en 1958.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1940, Löfgren développe avec son assistant Bengt Lundqvist à l'université de Stockholm, la lidocaïne, un anesthésique local. En 1943, Lundqvist et Löfgren vendent les droits de ce produit pharmaceutique à Astra (Astra AB (en)) pour 15 000 couronnes suédoises (plus les redevances à 4 % des ventes) qui le commercialise sous le nom de Xylocaïne. L'entreprise pharmaceutique connait beaucoup de succès dans la commercialisation de ce produit.
+Löfgren termine sa thèse de doctorat en 1948 sous le titre Études sur les anesthésiques locaux : Xylocaïne: une nouvelle drogue de synthèse. Il devient plus tard professeur à l'Université de Stockholm. Löfgren reçoit le prix de l'Institut royal de technologie de Suède en 1958.
 </t>
         </is>
       </c>
